--- a/uploads/attendance.xlsx
+++ b/uploads/attendance.xlsx
@@ -477,9 +477,6 @@
       <c r="G5" t="str">
         <v>P</v>
       </c>
-      <c r="H5" t="str">
-        <v>P</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/uploads/attendance.xlsx
+++ b/uploads/attendance.xlsx
@@ -477,6 +477,9 @@
       <c r="G5" t="str">
         <v>P</v>
       </c>
+      <c r="H5" t="str">
+        <v>P</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
